--- a/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H2">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J2">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.443481186005837</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="N2">
-        <v>0.443481186005837</v>
+        <v>89.323397</v>
       </c>
       <c r="O2">
-        <v>0.01753900339102556</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="P2">
-        <v>0.01753900339102556</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="Q2">
-        <v>4.686297007093302</v>
+        <v>537.2915373271316</v>
       </c>
       <c r="R2">
-        <v>4.686297007093302</v>
+        <v>4835.623835944184</v>
       </c>
       <c r="S2">
-        <v>0.0105107630829887</v>
+        <v>0.3355627629192939</v>
       </c>
       <c r="T2">
-        <v>0.0105107630829887</v>
+        <v>0.3355627629192939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H3">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J3">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.9416731981234</v>
+        <v>0.5058753333333333</v>
       </c>
       <c r="N3">
-        <v>23.9416731981234</v>
+        <v>1.517626</v>
       </c>
       <c r="O3">
-        <v>0.9468565987897067</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="P3">
-        <v>0.9468565987897067</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="Q3">
-        <v>252.9933512257155</v>
+        <v>9.128712454001557</v>
       </c>
       <c r="R3">
-        <v>252.9933512257155</v>
+        <v>82.15841208601402</v>
       </c>
       <c r="S3">
-        <v>0.5674316357413713</v>
+        <v>0.005701292054960208</v>
       </c>
       <c r="T3">
-        <v>0.5674316357413713</v>
+        <v>0.005701292054960208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5670706108187</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H4">
-        <v>10.5670706108187</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J4">
-        <v>0.5992793802849081</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9002723940399</v>
+        <v>29.12203633333333</v>
       </c>
       <c r="N4">
-        <v>0.9002723940399</v>
+        <v>87.36610899999999</v>
       </c>
       <c r="O4">
-        <v>0.03560439781926777</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="P4">
-        <v>0.03560439781926777</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="Q4">
-        <v>9.51324195679042</v>
+        <v>525.5182023014612</v>
       </c>
       <c r="R4">
-        <v>9.51324195679042</v>
+        <v>4729.663820713151</v>
       </c>
       <c r="S4">
-        <v>0.02133698146054812</v>
+        <v>0.3282097849631512</v>
       </c>
       <c r="T4">
-        <v>0.02133698146054812</v>
+        <v>0.3282097849631512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.418824971792328</v>
+        <v>18.04537966666667</v>
       </c>
       <c r="H5">
-        <v>0.418824971792328</v>
+        <v>54.13613900000001</v>
       </c>
       <c r="I5">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="J5">
-        <v>0.02375238879227139</v>
+        <v>0.6797959733292525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.443481186005837</v>
+        <v>0.9158823333333334</v>
       </c>
       <c r="N5">
-        <v>0.443481186005837</v>
+        <v>2.747647</v>
       </c>
       <c r="O5">
-        <v>0.01753900339102556</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="P5">
-        <v>0.01753900339102556</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="Q5">
-        <v>0.1857409952193229</v>
+        <v>16.52744443499256</v>
       </c>
       <c r="R5">
-        <v>0.1857409952193229</v>
+        <v>148.746999914933</v>
       </c>
       <c r="S5">
-        <v>0.0004165932275726055</v>
+        <v>0.01032213339184703</v>
       </c>
       <c r="T5">
-        <v>0.0004165932275726055</v>
+        <v>0.01032213339184703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H6">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J6">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.9416731981234</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="N6">
-        <v>23.9416731981234</v>
+        <v>89.323397</v>
       </c>
       <c r="O6">
-        <v>0.9468565987897067</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="P6">
-        <v>0.9468565987897067</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="Q6">
-        <v>10.02737060186517</v>
+        <v>17.87061444348956</v>
       </c>
       <c r="R6">
-        <v>10.02737060186517</v>
+        <v>160.835529991406</v>
       </c>
       <c r="S6">
-        <v>0.02249010606498084</v>
+        <v>0.01116100355414993</v>
       </c>
       <c r="T6">
-        <v>0.02249010606498084</v>
+        <v>0.01116100355414993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.418824971792328</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H7">
-        <v>0.418824971792328</v>
+        <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J7">
-        <v>0.02375238879227139</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9002723940399</v>
+        <v>0.5058753333333333</v>
       </c>
       <c r="N7">
-        <v>0.9002723940399</v>
+        <v>1.517626</v>
       </c>
       <c r="O7">
-        <v>0.03560439781926777</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="P7">
-        <v>0.03560439781926777</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="Q7">
-        <v>0.3770565600391728</v>
+        <v>0.3036260378164445</v>
       </c>
       <c r="R7">
-        <v>0.3770565600391728</v>
+        <v>2.732634340348</v>
       </c>
       <c r="S7">
-        <v>0.0008456894997179476</v>
+        <v>0.0001896281349428566</v>
       </c>
       <c r="T7">
-        <v>0.0008456894997179476</v>
+        <v>0.0001896281349428566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.76155604690593</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H8">
-        <v>3.76155604690593</v>
+        <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J8">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.443481186005837</v>
+        <v>29.12203633333333</v>
       </c>
       <c r="N8">
-        <v>0.443481186005837</v>
+        <v>87.36610899999999</v>
       </c>
       <c r="O8">
-        <v>0.01753900339102556</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="P8">
-        <v>0.01753900339102556</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="Q8">
-        <v>1.66817933690927</v>
+        <v>17.47902679257578</v>
       </c>
       <c r="R8">
-        <v>1.66817933690927</v>
+        <v>157.311241133182</v>
       </c>
       <c r="S8">
-        <v>0.00374151227795653</v>
+        <v>0.01091643943032362</v>
       </c>
       <c r="T8">
-        <v>0.00374151227795653</v>
+        <v>0.01091643943032362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.76155604690593</v>
+        <v>0.6001993333333334</v>
       </c>
       <c r="H9">
-        <v>3.76155604690593</v>
+        <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="J9">
-        <v>0.2133252497043819</v>
+        <v>0.02261039099934159</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.9416731981234</v>
+        <v>0.9158823333333334</v>
       </c>
       <c r="N9">
-        <v>23.9416731981234</v>
+        <v>2.747647</v>
       </c>
       <c r="O9">
-        <v>0.9468565987897067</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="P9">
-        <v>0.9468565987897067</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="Q9">
-        <v>90.05794559144671</v>
+        <v>0.5497119658784445</v>
       </c>
       <c r="R9">
-        <v>90.05794559144671</v>
+        <v>4.947407692906001</v>
       </c>
       <c r="S9">
-        <v>0.2019884203710559</v>
+        <v>0.0003433198799251824</v>
       </c>
       <c r="T9">
-        <v>0.2019884203710559</v>
+        <v>0.0003433198799251825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.76155604690593</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H10">
-        <v>3.76155604690593</v>
+        <v>14.070163</v>
       </c>
       <c r="I10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J10">
-        <v>0.2133252497043819</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.9002723940399</v>
+        <v>29.77446566666667</v>
       </c>
       <c r="N10">
-        <v>0.9002723940399</v>
+        <v>89.323397</v>
       </c>
       <c r="O10">
-        <v>0.03560439781926777</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="P10">
-        <v>0.03560439781926777</v>
+        <v>0.4936227575398824</v>
       </c>
       <c r="Q10">
-        <v>3.386425067663264</v>
+        <v>139.6438617226346</v>
       </c>
       <c r="R10">
-        <v>3.386425067663264</v>
+        <v>1256.794755503711</v>
       </c>
       <c r="S10">
-        <v>0.007595317055369448</v>
+        <v>0.08721388074987803</v>
       </c>
       <c r="T10">
-        <v>0.007595317055369448</v>
+        <v>0.08721388074987804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.88551048874402</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H11">
-        <v>2.88551048874402</v>
+        <v>14.070163</v>
       </c>
       <c r="I11">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J11">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.443481186005837</v>
+        <v>0.5058753333333333</v>
       </c>
       <c r="N11">
-        <v>0.443481186005837</v>
+        <v>1.517626</v>
       </c>
       <c r="O11">
-        <v>0.01753900339102556</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="P11">
-        <v>0.01753900339102556</v>
+        <v>0.008386769381758081</v>
       </c>
       <c r="Q11">
-        <v>1.27966961378048</v>
+        <v>2.372582799226445</v>
       </c>
       <c r="R11">
-        <v>1.27966961378048</v>
+        <v>21.353245193038</v>
       </c>
       <c r="S11">
-        <v>0.002870134802507727</v>
+        <v>0.00148178481150817</v>
       </c>
       <c r="T11">
-        <v>0.002870134802507727</v>
+        <v>0.00148178481150817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.88551048874402</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H12">
-        <v>2.88551048874402</v>
+        <v>14.070163</v>
       </c>
       <c r="I12">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J12">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.9416731981234</v>
+        <v>29.12203633333333</v>
       </c>
       <c r="N12">
-        <v>23.9416731981234</v>
+        <v>87.36610899999999</v>
       </c>
       <c r="O12">
-        <v>0.9468565987897067</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="P12">
-        <v>0.9468565987897067</v>
+        <v>0.482806309304492</v>
       </c>
       <c r="Q12">
-        <v>69.08394913126665</v>
+        <v>136.5839327006408</v>
       </c>
       <c r="R12">
-        <v>69.08394913126665</v>
+        <v>1229.255394305767</v>
       </c>
       <c r="S12">
-        <v>0.1549464366122986</v>
+        <v>0.0853028172664195</v>
       </c>
       <c r="T12">
-        <v>0.1549464366122986</v>
+        <v>0.08530281726641951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.88551048874402</v>
+        <v>4.690054333333333</v>
       </c>
       <c r="H13">
-        <v>2.88551048874402</v>
+        <v>14.070163</v>
       </c>
       <c r="I13">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="J13">
-        <v>0.1636429812184386</v>
+        <v>0.1766812397072912</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9002723940399</v>
+        <v>0.9158823333333334</v>
       </c>
       <c r="N13">
-        <v>0.9002723940399</v>
+        <v>2.747647</v>
       </c>
       <c r="O13">
-        <v>0.03560439781926777</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="P13">
-        <v>0.03560439781926777</v>
+        <v>0.0151841637738675</v>
       </c>
       <c r="Q13">
-        <v>2.597745435728821</v>
+        <v>4.295537906273444</v>
       </c>
       <c r="R13">
-        <v>2.597745435728821</v>
+        <v>38.65984115646101</v>
       </c>
       <c r="S13">
-        <v>0.00582640980363225</v>
+        <v>0.002682756879485451</v>
       </c>
       <c r="T13">
-        <v>0.00582640980363225</v>
+        <v>0.002682756879485452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H14">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J14">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>29.77446566666667</v>
+      </c>
+      <c r="N14">
+        <v>89.323397</v>
+      </c>
+      <c r="O14">
+        <v>0.4936227575398824</v>
+      </c>
+      <c r="P14">
+        <v>0.4936227575398824</v>
+      </c>
+      <c r="Q14">
+        <v>95.56574274970122</v>
+      </c>
+      <c r="R14">
+        <v>860.0916847473109</v>
+      </c>
+      <c r="S14">
+        <v>0.05968511031656049</v>
+      </c>
+      <c r="T14">
+        <v>0.05968511031656049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H15">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J15">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5058753333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.517626</v>
+      </c>
+      <c r="O15">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="P15">
+        <v>0.008386769381758081</v>
+      </c>
+      <c r="Q15">
+        <v>1.623684955759778</v>
+      </c>
+      <c r="R15">
+        <v>14.613164601838</v>
+      </c>
+      <c r="S15">
+        <v>0.001014064380346847</v>
+      </c>
+      <c r="T15">
+        <v>0.001014064380346847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H16">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J16">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>29.12203633333333</v>
+      </c>
+      <c r="N16">
+        <v>87.36610899999999</v>
+      </c>
+      <c r="O16">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="P16">
+        <v>0.482806309304492</v>
+      </c>
+      <c r="Q16">
+        <v>93.47167011277409</v>
+      </c>
+      <c r="R16">
+        <v>841.2450310149668</v>
+      </c>
+      <c r="S16">
+        <v>0.05837726764459761</v>
+      </c>
+      <c r="T16">
+        <v>0.05837726764459761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.209654333333333</v>
+      </c>
+      <c r="H17">
+        <v>9.628962999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="J17">
+        <v>0.1209123959641148</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9158823333333334</v>
+      </c>
+      <c r="N17">
+        <v>2.747647</v>
+      </c>
+      <c r="O17">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="P17">
+        <v>0.0151841637738675</v>
+      </c>
+      <c r="Q17">
+        <v>2.939665700006778</v>
+      </c>
+      <c r="R17">
+        <v>26.456991300061</v>
+      </c>
+      <c r="S17">
+        <v>0.001835953622609835</v>
+      </c>
+      <c r="T17">
+        <v>0.001835953622609835</v>
       </c>
     </row>
   </sheetData>
